--- a/Unity/Assets/Config/Excel/Datas/Hero.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29160" windowHeight="14540"/>
+    <workbookView windowWidth="29140" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,84 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>liuwei</author>
+  </authors>
+  <commentList>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t>liuwei:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+单位m</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t>liuwei:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+单位m</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t>liuwei:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+相对于Assets/Bundles路径</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>##var</t>
   </si>
@@ -43,7 +119,13 @@
     <t>AtkRange</t>
   </si>
   <si>
-    <t>AtkType</t>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>AOIRange</t>
+  </si>
+  <si>
+    <t>ResourceName</t>
   </si>
   <si>
     <t>##type</t>
@@ -91,10 +173,19 @@
     <t>攻击范围</t>
   </si>
   <si>
-    <t>攻击类型</t>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>视野范围</t>
+  </si>
+  <si>
+    <t>资源名称</t>
   </si>
   <si>
     <t>星辰少女</t>
+  </si>
+  <si>
+    <t>Unit</t>
   </si>
 </sst>
 </file>
@@ -107,7 +198,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +349,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1272,10 +1374,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4"/>
@@ -1284,11 +1386,11 @@
     <col min="6" max="6" width="12.5384615384615" customWidth="1"/>
     <col min="7" max="7" width="10.4615384615385" customWidth="1"/>
     <col min="8" max="8" width="12.0769230769231" customWidth="1"/>
-    <col min="9" max="9" width="10.3846153846154" customWidth="1"/>
-    <col min="10" max="10" width="11.5384615384615" customWidth="1"/>
+    <col min="9" max="11" width="10.3846153846154" customWidth="1"/>
+    <col min="12" max="12" width="24.1538461538462" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1316,52 +1418,62 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:12">
+    <row r="2" s="2" customFormat="1" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:9">
+    <row r="3" s="3" customFormat="1" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1369,45 +1481,56 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:12">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>1000</v>
@@ -1428,11 +1551,18 @@
         <v>200</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>